--- a/Docs/Taetigkeitsdokumentation (3).xlsx
+++ b/Docs/Taetigkeitsdokumentation (3).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37AE65C-20C2-4791-8320-D0CCE7AEE95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FE18CB-D44C-4993-914A-15D8CB18DC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="1050" windowWidth="38700" windowHeight="15885" tabRatio="202" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="202" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
   <si>
     <t>Datei</t>
   </si>
@@ -149,9 +147,6 @@
     <t>Simon und Niklas</t>
   </si>
   <si>
-    <t>zeichneZiel</t>
-  </si>
-  <si>
     <t>Spielfeld_GUI.py</t>
   </si>
   <si>
@@ -162,6 +157,33 @@
   </si>
   <si>
     <t>Database</t>
+  </si>
+  <si>
+    <t>Farbfeld</t>
+  </si>
+  <si>
+    <t>setze/holePosition</t>
+  </si>
+  <si>
+    <t>istFrei/betreten</t>
+  </si>
+  <si>
+    <t>verlassen</t>
+  </si>
+  <si>
+    <t>zeichneBrett</t>
+  </si>
+  <si>
+    <t>bewegeFigur</t>
+  </si>
+  <si>
+    <t>erstelleFeld</t>
+  </si>
+  <si>
+    <t>bewege</t>
+  </si>
+  <si>
+    <t>Zielbedingungen</t>
   </si>
 </sst>
 </file>
@@ -353,7 +375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -402,6 +424,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -668,22 +691,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.23223570190641249</c:v>
+                  <c:v>0.20395738203957381</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19324090121317158</c:v>
+                  <c:v>0.16971080669710806</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.2720970537261693E-2</c:v>
+                  <c:v>0.20319634703196346</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.40207972270363951</c:v>
+                  <c:v>0.35312024353120242</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0259965337954939E-2</c:v>
+                  <c:v>4.4140030441400302E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9462738301559793E-2</c:v>
+                  <c:v>2.5875190258751901E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1392,9 +1415,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1432,9 +1455,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1467,9 +1490,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1502,9 +1542,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1680,8 +1737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1737,7 +1794,7 @@
       </c>
       <c r="J2" s="2">
         <f t="shared" si="0"/>
-        <v>107</v>
+        <v>267</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
@@ -1773,27 +1830,27 @@
       </c>
       <c r="H3" s="17">
         <f>H2/SUM($H$4:$M$1001)</f>
-        <v>0.23223570190641249</v>
+        <v>0.20395738203957381</v>
       </c>
       <c r="I3" s="19">
         <f t="shared" ref="I3:M3" si="1">I2/SUM($H$4:$M$1001)</f>
-        <v>0.19324090121317158</v>
+        <v>0.16971080669710806</v>
       </c>
       <c r="J3" s="19">
         <f t="shared" si="1"/>
-        <v>9.2720970537261693E-2</v>
+        <v>0.20319634703196346</v>
       </c>
       <c r="K3" s="19">
         <f t="shared" si="1"/>
-        <v>0.40207972270363951</v>
+        <v>0.35312024353120242</v>
       </c>
       <c r="L3" s="19">
         <f t="shared" si="1"/>
-        <v>5.0259965337954939E-2</v>
+        <v>4.4140030441400302E-2</v>
       </c>
       <c r="M3" s="20">
         <f t="shared" si="1"/>
-        <v>2.9462738301559793E-2</v>
+        <v>2.5875190258751901E-2</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -2404,13 +2461,14 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
       <c r="C18">
-        <v>87</v>
+        <f>132-17</f>
+        <v>115</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2429,7 +2487,7 @@
       </c>
       <c r="J18">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="2"/>
@@ -2446,13 +2504,13 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -2471,7 +2529,7 @@
       </c>
       <c r="J19">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="2"/>
@@ -2532,7 +2590,7 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -2573,7 +2631,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -2611,7 +2669,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
@@ -2652,7 +2710,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
@@ -2692,8 +2750,21 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="E25" s="8"/>
+      <c r="A25" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H25" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2702,9 +2773,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="3"/>
@@ -2720,8 +2791,21 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="E26" s="8"/>
+      <c r="A26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H26" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2730,9 +2814,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="3"/>
@@ -2748,8 +2832,21 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="E27" s="8"/>
+      <c r="A27" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H27" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2758,9 +2855,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="3"/>
@@ -2776,8 +2873,21 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="E28" s="8"/>
+      <c r="A28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H28" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2786,9 +2896,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="3"/>
@@ -2804,8 +2914,21 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="E29" s="8"/>
+      <c r="A29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H29" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2814,9 +2937,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J29" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="3"/>
@@ -2832,8 +2955,21 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="E30" s="8"/>
+      <c r="A30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>23</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H30" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2842,9 +2978,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J30" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>23</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="3"/>
@@ -2860,8 +2996,21 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="E31" s="8"/>
+      <c r="A31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H31" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2870,9 +3019,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J31" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>22</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="3"/>
@@ -2888,8 +3037,21 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="E32" s="8"/>
+      <c r="A32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32">
+        <v>23</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H32" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2898,9 +3060,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>23</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="3"/>
@@ -2916,8 +3078,21 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="E33" s="8"/>
+      <c r="A33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H33" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2926,9 +3101,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J33" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="3"/>
@@ -2944,8 +3119,21 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="E34" s="8"/>
+      <c r="A34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H34" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2954,9 +3142,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J34" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>9</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="3"/>
@@ -2972,8 +3160,21 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="E35" s="8"/>
+      <c r="A35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="H35" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2982,9 +3183,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J35" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="3"/>
